--- a/vignettes/figures/table_deps.xlsx
+++ b/vignettes/figures/table_deps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margotbrard/Desktop/missions/goodpracticestools/vignettes/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9954FDCB-E774-4C49-A707-995DE89EE42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCE96E6-A94D-5E48-A8C3-F0067D6C8984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="1760" windowWidth="24040" windowHeight="20100" xr2:uid="{1A955D51-05AC-BB43-8E5F-604BAC6C83A4}"/>
+    <workbookView xWindow="6840" yWindow="1840" windowWidth="24040" windowHeight="20100" xr2:uid="{1A955D51-05AC-BB43-8E5F-604BAC6C83A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>license (extract 2025-03-24)</t>
   </si>
   <si>
-    <t>link to license</t>
-  </si>
-  <si>
     <t>https://dplyr.tidyverse.org/LICENSE.html</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>https://cran.r-project.org/web/licenses/MIT</t>
+  </si>
+  <si>
+    <t>link to license file (extract 2025-03-24)</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,7 +576,7 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -584,13 +584,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -598,13 +598,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -612,13 +612,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -626,13 +626,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -640,13 +640,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -654,13 +654,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -668,13 +668,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -682,13 +682,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -710,13 +710,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -724,13 +724,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -738,13 +738,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -752,13 +752,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -766,13 +766,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -780,13 +780,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -794,13 +794,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -808,13 +808,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -822,13 +822,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -836,13 +836,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/figures/table_deps.xlsx
+++ b/vignettes/figures/table_deps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margotbrard/Desktop/missions/goodpracticestools/vignettes/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCE96E6-A94D-5E48-A8C3-F0067D6C8984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF538DEE-9DA4-2D43-950C-A0BDEFC3244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1840" windowWidth="24040" windowHeight="20100" xr2:uid="{1A955D51-05AC-BB43-8E5F-604BAC6C83A4}"/>
+    <workbookView xWindow="6200" yWindow="760" windowWidth="24040" windowHeight="17900" xr2:uid="{1A955D51-05AC-BB43-8E5F-604BAC6C83A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>package</t>
   </si>
@@ -70,9 +70,6 @@
     <t>purrr</t>
   </si>
   <si>
-    <t>reactable</t>
-  </si>
-  <si>
     <t>rlang</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>1.0.2</t>
   </si>
   <si>
-    <t>0.4.4</t>
-  </si>
-  <si>
     <t>1.3.0</t>
   </si>
   <si>
@@ -203,6 +197,15 @@
   </si>
   <si>
     <t>link to license file (extract 2025-03-24)</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>https://github.com/rstudio/DT/blob/main/LICENSE</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,13 +573,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -584,265 +587,265 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
